--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_78_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_78_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.3095460657092723, 1.76687728464259]</t>
+          <t>[1.3053801719085127, 1.7710431784433496]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.0666567060800678, 0.3050919223042543]</t>
+          <t>[0.06667262137899455, 0.30507600700532755]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.00298038075000262</v>
+        <v>0.002976892552399413</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00298038075000262</v>
+        <v>0.002976892552399413</v>
       </c>
       <c r="W2" t="n">
         <v>13.67897897897922</v>
